--- a/运营/视频题材/Kid Coding General.xlsx
+++ b/运营/视频题材/Kid Coding General.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\编程教育\视频题材\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\techedu\运营\视频题材\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA1A1A8-6555-4E69-A2AA-B9D322FAE684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD02AF8B-7F76-43D2-8089-A3C5B37E0AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6650" yWindow="3450" windowWidth="26550" windowHeight="17550" xr2:uid="{81F98CD6-C286-43B8-9884-F3F0DF91DD29}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{81F98CD6-C286-43B8-9884-F3F0DF91DD29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
   <si>
     <t>(171) Coding for Kids |What is coding for kids? | Coding for beginners | Types of Coding |Coding Languages - YouTube</t>
   </si>
@@ -307,6 +307,15 @@
   <si>
     <t>Google Scholar</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(180) Mitch Resnick: Let's teach kids to code - YouTube</t>
+  </si>
+  <si>
+    <t>(180) Kindergarten For Our Whole Lives | Mitchel Resnick | TEDxBeaconStreet - YouTube</t>
+  </si>
+  <si>
+    <t>Scratch: Coding for Everyone! | Mitchel Resnick | Talks at Google - YouTube</t>
   </si>
 </sst>
 </file>
@@ -698,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E753560-1A1F-4661-8555-3E5DA6510282}">
-  <dimension ref="B2:C98"/>
+  <dimension ref="B2:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -892,259 +901,256 @@
         <v>36</v>
       </c>
     </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.3">
@@ -1154,11 +1160,41 @@
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1197,58 +1233,61 @@
     <hyperlink ref="B36" r:id="rId30" display="https://www.youtube.com/watch?v=F3T3DAdKWcU" xr:uid="{CD350FAA-CE5B-4E32-B5ED-FDEA846F3137}"/>
     <hyperlink ref="B37" r:id="rId31" display="https://www.youtube.com/watch?v=wSJ6Wkk7igk" xr:uid="{FE597532-4077-4944-A0AD-C3B9F14D146A}"/>
     <hyperlink ref="B38" r:id="rId32" display="https://www.youtube.com/watch?v=mT2oiWfGJyg" xr:uid="{5A0E185A-A951-4BF9-A847-EA5AB3AFFA23}"/>
-    <hyperlink ref="B47" r:id="rId33" display="https://www.codewizardshq.com/coding-websites-for-kids/" xr:uid="{0114B9E3-6A44-4255-BA29-0CD8EF6210AE}"/>
-    <hyperlink ref="B48" r:id="rId34" display="https://www.raspberrypi.org/research/publications/" xr:uid="{11A40E73-78BE-44DC-A206-A96C3BE008A6}"/>
-    <hyperlink ref="B49" r:id="rId35" display="https://mommypoppins.com/coding-kids-free-websites-teach-learn-programming" xr:uid="{1823DCD4-5A43-4C30-9F62-65426B83B9DD}"/>
-    <hyperlink ref="B50" r:id="rId36" display="https://www.researchgate.net/publication/352285341_The_Impact_of_Coding_Apps_to_Support_Young_Children_in_Computational_Thinking_and_Computational_Fluency_A_Literature_Review" xr:uid="{3B857442-1955-42CC-924E-6EFCDA0FB73F}"/>
-    <hyperlink ref="B51" r:id="rId37" display="https://teachyourkidscode.com/why-coding-is-important-to-learn/" xr:uid="{4F21292F-EB73-4E31-A9D2-5094240A5338}"/>
-    <hyperlink ref="B52" r:id="rId38" display="https://techbootcamps.utexas.edu/blog/why-kids-should-learn-to-code/" xr:uid="{200D31A4-15CC-4571-9B12-978ED667882E}"/>
-    <hyperlink ref="B53" r:id="rId39" display="https://www.sciencedirect.com/science/article/pii/S0747563219300184" xr:uid="{6CE6CD9D-81FC-4C1A-9A98-1EA96543834E}"/>
-    <hyperlink ref="B54" r:id="rId40" display="https://www.bestcolleges.com/bootcamps/guides/teach-kids-coding-resources/" xr:uid="{988A9C1D-CC5A-461A-B458-905A1E27A2D2}"/>
-    <hyperlink ref="B55" r:id="rId41" display="https://www.pedagogicalresearch.com/download/examining-coding-skills-of-five-year-old-children-12802.pdf" xr:uid="{64D5E3D3-BA15-42E2-A706-1D85A3A1187D}"/>
-    <hyperlink ref="B56" r:id="rId42" display="https://www.bc.edu/bc-web/bcnews/nation-world-society/education/new-augustus-long-professor.html" xr:uid="{4C5C4799-241A-4524-BB8A-BD39EF2CF898}"/>
-    <hyperlink ref="B57" r:id="rId43" display="https://www.safesearchkids.com/what-are-the-biggest-obstacles-to-learn-coding-for-kids/" xr:uid="{2F5361D4-79D1-4D29-98BB-73A842EBD3A8}"/>
-    <hyperlink ref="B58" r:id="rId44" display="https://www.mdpi.com/2227-7102/11/5/198/htm" xr:uid="{1E6A7022-071C-4BAD-960D-4BC7F54E9B74}"/>
-    <hyperlink ref="B59" r:id="rId45" display="https://research.acer.edu.au/cgi/viewcontent.cgi?article=1297&amp;context=research_conference" xr:uid="{948A2BFA-C929-4DE3-BCB3-BBFD3D14B498}"/>
-    <hyperlink ref="B60" r:id="rId46" display="https://funtech.co.uk/latest/13-reasons-why-every-parent-should-encourage-their-child-to-learn-coding-skills" xr:uid="{B4F8422E-C496-46BC-9292-3065F722CA73}"/>
-    <hyperlink ref="B61" r:id="rId47" display="https://educationandbehavior.com/benefits-of-teaching-coding-to-elementary-school-children/" xr:uid="{D946E4A1-43B7-488A-A940-E491D9F41FDC}"/>
-    <hyperlink ref="B62" r:id="rId48" display="https://www.academia.edu/48808678/Teaching_Coding_To_Young_Children_A_Perception_Based_Study_On_Indian_Parents_Regarding_Coding_Education_At_An_Early_Age" xr:uid="{6D9A4B13-A7B4-47D2-ABD5-29E33487D5E9}"/>
-    <hyperlink ref="B63" r:id="rId49" display="https://link.springer.com/article/10.1007/s10643-021-01236-8" xr:uid="{A2B87A9C-0F3F-4EF4-B11C-08E43F4A0A7E}"/>
-    <hyperlink ref="B64" r:id="rId50" display="https://journals.sagepub.com/doi/10.1177/07356331211027387" xr:uid="{C68BB1AA-645B-49DD-BC5B-44A61ABF61BF}"/>
-    <hyperlink ref="B65" r:id="rId51" display="https://psycnet.apa.org/record/2019-76766-006" xr:uid="{C38F218F-414A-48B6-B1EF-24BE5A4E1BF5}"/>
-    <hyperlink ref="B66" r:id="rId52" display="https://www.commonsense.org/education/lists/best-coding-tools-for-elementary" xr:uid="{6EAD0ADE-90CE-4A19-B789-BDCC60AC83C4}"/>
-    <hyperlink ref="B67" r:id="rId53" display="https://research.com/education/coding-classes-in-us-schools" xr:uid="{E3763074-424E-4523-9343-44E82E71D6CD}"/>
-    <hyperlink ref="B68" r:id="rId54" display="https://www.digitaljournal.com/pr/online-coding-for-kids-market-demand-research-insights-by-2031" xr:uid="{BDDB27E9-99E5-4830-91BD-E60159D61454}"/>
-    <hyperlink ref="B69" r:id="rId55" display="https://www.edtechreview.in/trends-insights/insights/how-coding-improves-children-s-later-academic-performance/" xr:uid="{D34684A5-94D8-4B8B-B2A9-3D0B9D8DFA2D}"/>
-    <hyperlink ref="B70" r:id="rId56" display="https://www.ucode.com/coding-classes-for-kids/what-is-coding" xr:uid="{1FB9BA95-EC46-4CAF-B1E6-508B8712134B}"/>
-    <hyperlink ref="B71" r:id="rId57" display="https://www.nordangliaeducation.com/news/2020/08/18/the-benefits-of-coding-in-school-and-how-to-teach-it" xr:uid="{4CD9688C-32E2-40C4-8BCC-33AB8B83AAE5}"/>
-    <hyperlink ref="B72" r:id="rId58" display="https://telrp.springeropen.com/articles/10.1186/s41039-019-0106-3" xr:uid="{C14270DC-1419-4621-97E5-D1E4281AB426}"/>
-    <hyperlink ref="B73" r:id="rId59" display="https://www.edc.org/should-all-children-learn-code" xr:uid="{C43BC409-367F-4E0B-B565-DA06ACBD4A94}"/>
-    <hyperlink ref="B74" r:id="rId60" display="https://dl.acm.org/doi/10.1145/2960310.2960325" xr:uid="{A4E99C88-BFEB-406B-AEC2-F778260FD2DD}"/>
-    <hyperlink ref="B75" r:id="rId61" display="https://medium.com/nerd-for-tech/the-new-education-policy-and-why-coding-is-mandatory-and-how-it-would-be-helpful-for-kids-25854a7a6bd5" xr:uid="{262B6536-3DC4-4E23-94DC-0EE340D45563}"/>
-    <hyperlink ref="B76" r:id="rId62" display="https://www.igi-global.com/book/teaching-computational-thinking-coding-young/262496" xr:uid="{04E46A6C-1E01-47D8-8950-4F80E4524A63}"/>
-    <hyperlink ref="B77" r:id="rId63" display="https://www.rasmussen.edu/degrees/technology/blog/coding-for-kids/" xr:uid="{9732FA1C-8FBF-43BB-85FC-75D2BE5E5708}"/>
-    <hyperlink ref="B78" r:id="rId64" display="https://membership.sciencepublishinggroup.com/journal/paperinfo?journalid=192&amp;doi=10.11648/j.ijeedu.20170604.11" xr:uid="{8A9F93B3-1E0E-40DE-9249-07BCA19C2A71}"/>
-    <hyperlink ref="B79" r:id="rId65" display="https://www.forbes.com/sites/forbesbusinessdevelopmentcouncil/2023/03/14/coding-education-is-crucial-to-american-business-success-3-ways-businesses-can-help/?sh=7c8a3a5454fc" xr:uid="{03A0A653-1314-49AF-9680-11DEF69DFADD}"/>
-    <hyperlink ref="B80" r:id="rId66" display="https://www.womansday.com/life/entertainment/g39590570/best-coding-websites-games-for-kids/" xr:uid="{FE42A966-0252-4789-AA18-725298F14A8F}"/>
-    <hyperlink ref="B81" r:id="rId67" display="https://www.iier.org.au/iier30/murcia2.pdf" xr:uid="{76CBABFD-2BCA-4DE2-A42E-BC0DDA6BA530}"/>
-    <hyperlink ref="B82" r:id="rId68" display="https://bootcamp.cvn.columbia.edu/blog/how-coding-provides-skills-that-can-help-children-cope-with-distress/" xr:uid="{F0664AC7-4381-4F0C-8E03-B94FD8987E44}"/>
-    <hyperlink ref="B83" r:id="rId69" display="https://www.nytimes.com/2020/07/21/parenting/stem-toys-kids.html" xr:uid="{6E532184-2475-44E4-B549-E6AF6B474736}"/>
-    <hyperlink ref="B84" r:id="rId70" display="https://www.haaretz.com/israel-news/tech-news/2021-10-29/ty-article-magazine/.premium/how-early-should-kids-learn-to-code/0000017f-dbb0-df62-a9ff-dff7553a0000" xr:uid="{905C516D-B03A-4FB2-BE31-338217E6B3D4}"/>
-    <hyperlink ref="B85" r:id="rId71" display="https://www.sciencefocus.com/future-technology/how-to-help-your-kids-to-learn-to-code/" xr:uid="{25016520-D063-462A-80D8-5F784323C464}"/>
-    <hyperlink ref="B86" r:id="rId72" display="https://oecdedutoday.com/computational-thinking-young-kids/" xr:uid="{512C07C5-8CA0-46DB-82F4-8DD59F978436}"/>
-    <hyperlink ref="B87" r:id="rId73" display="https://www.himama.com/blog/how-coding-helps-children-with-logic-and-problem-solving-skills/" xr:uid="{08BE5C7F-259E-4A22-95C0-1746C1818BF9}"/>
-    <hyperlink ref="B88" r:id="rId74" display="https://classover.com/en/blog/what-is-the-best-age-to-learn-coding-for-kids/" xr:uid="{000FAE0C-D7F4-444F-A213-E2DD3D4562DC}"/>
-    <hyperlink ref="B89" r:id="rId75" display="https://codakid.com/coding-games-for-kids-the-best-way-to-teach-computer-programming/" xr:uid="{30C68394-1D83-494A-BCA2-327D50B750C8}"/>
-    <hyperlink ref="B90" r:id="rId76" display="https://www.imperial.ac.uk/computing/outreach/codelab/" xr:uid="{2E9F0EA1-7516-4D94-8F5F-B03D17F30509}"/>
-    <hyperlink ref="B91" r:id="rId77" display="https://www.analyticsinsight.net/top-10-free-coding-websites-for-kids-to-learn-programming/" xr:uid="{C13F5222-1318-4A3C-B63D-4B9A36FDF4AD}"/>
-    <hyperlink ref="B92" r:id="rId78" display="https://gocoderz.com/blog/why-kids-should-learn-coding/" xr:uid="{BEFE04E8-9EC7-401C-89AC-4AC7526233A2}"/>
-    <hyperlink ref="B93" r:id="rId79" display="https://www.busythings.co.uk/blog/the-best-resources-for-teaching-children-to-code/" xr:uid="{26D71F0A-973A-4100-97C2-E6E601DC358A}"/>
-    <hyperlink ref="B94" r:id="rId80" display="https://www.tandfonline.com/doi/full/10.1080/20004508.2022.2072575" xr:uid="{7BA42E1C-F2D0-4B40-8680-B7C5F517BDD0}"/>
-    <hyperlink ref="B95" r:id="rId81" display="https://education.nsw.gov.au/content/dam/main-education/teaching-and-learning/education-for-a-changing-world/media/documents/Coding-and-Computational-Report_A.pdf" xr:uid="{B2953AED-B771-4592-8D39-B55FDDC615CD}"/>
-    <hyperlink ref="B96" r:id="rId82" display="https://www.imperial.ac.uk/computing/outreach/codelab/" xr:uid="{DAA8F604-6D8A-4E92-89C2-93EB9C98B5F5}"/>
-    <hyperlink ref="B97" r:id="rId83" display="https://ncca.ie/media/4155/primary-coding_final-report-on-the-coding-in-primary-schools-initiative.pdf" xr:uid="{73E574A7-BBDB-4FFF-9276-2787C4A49655}"/>
-    <hyperlink ref="B98" r:id="rId84" display="https://thejournal.com/articles/2013/10/23/6-tips-to-get-your-kids-excited-about-coding.aspx" xr:uid="{490D2BA8-6B63-4E4E-91B7-E7D7F3CDFA87}"/>
+    <hyperlink ref="B53" r:id="rId33" display="https://www.codewizardshq.com/coding-websites-for-kids/" xr:uid="{0114B9E3-6A44-4255-BA29-0CD8EF6210AE}"/>
+    <hyperlink ref="B54" r:id="rId34" display="https://www.raspberrypi.org/research/publications/" xr:uid="{11A40E73-78BE-44DC-A206-A96C3BE008A6}"/>
+    <hyperlink ref="B55" r:id="rId35" display="https://mommypoppins.com/coding-kids-free-websites-teach-learn-programming" xr:uid="{1823DCD4-5A43-4C30-9F62-65426B83B9DD}"/>
+    <hyperlink ref="B56" r:id="rId36" display="https://www.researchgate.net/publication/352285341_The_Impact_of_Coding_Apps_to_Support_Young_Children_in_Computational_Thinking_and_Computational_Fluency_A_Literature_Review" xr:uid="{3B857442-1955-42CC-924E-6EFCDA0FB73F}"/>
+    <hyperlink ref="B57" r:id="rId37" display="https://teachyourkidscode.com/why-coding-is-important-to-learn/" xr:uid="{4F21292F-EB73-4E31-A9D2-5094240A5338}"/>
+    <hyperlink ref="B58" r:id="rId38" display="https://techbootcamps.utexas.edu/blog/why-kids-should-learn-to-code/" xr:uid="{200D31A4-15CC-4571-9B12-978ED667882E}"/>
+    <hyperlink ref="B59" r:id="rId39" display="https://www.sciencedirect.com/science/article/pii/S0747563219300184" xr:uid="{6CE6CD9D-81FC-4C1A-9A98-1EA96543834E}"/>
+    <hyperlink ref="B60" r:id="rId40" display="https://www.bestcolleges.com/bootcamps/guides/teach-kids-coding-resources/" xr:uid="{988A9C1D-CC5A-461A-B458-905A1E27A2D2}"/>
+    <hyperlink ref="B61" r:id="rId41" display="https://www.pedagogicalresearch.com/download/examining-coding-skills-of-five-year-old-children-12802.pdf" xr:uid="{64D5E3D3-BA15-42E2-A706-1D85A3A1187D}"/>
+    <hyperlink ref="B62" r:id="rId42" display="https://www.bc.edu/bc-web/bcnews/nation-world-society/education/new-augustus-long-professor.html" xr:uid="{4C5C4799-241A-4524-BB8A-BD39EF2CF898}"/>
+    <hyperlink ref="B63" r:id="rId43" display="https://www.safesearchkids.com/what-are-the-biggest-obstacles-to-learn-coding-for-kids/" xr:uid="{2F5361D4-79D1-4D29-98BB-73A842EBD3A8}"/>
+    <hyperlink ref="B64" r:id="rId44" display="https://www.mdpi.com/2227-7102/11/5/198/htm" xr:uid="{1E6A7022-071C-4BAD-960D-4BC7F54E9B74}"/>
+    <hyperlink ref="B65" r:id="rId45" display="https://research.acer.edu.au/cgi/viewcontent.cgi?article=1297&amp;context=research_conference" xr:uid="{948A2BFA-C929-4DE3-BCB3-BBFD3D14B498}"/>
+    <hyperlink ref="B66" r:id="rId46" display="https://funtech.co.uk/latest/13-reasons-why-every-parent-should-encourage-their-child-to-learn-coding-skills" xr:uid="{B4F8422E-C496-46BC-9292-3065F722CA73}"/>
+    <hyperlink ref="B67" r:id="rId47" display="https://educationandbehavior.com/benefits-of-teaching-coding-to-elementary-school-children/" xr:uid="{D946E4A1-43B7-488A-A940-E491D9F41FDC}"/>
+    <hyperlink ref="B68" r:id="rId48" display="https://www.academia.edu/48808678/Teaching_Coding_To_Young_Children_A_Perception_Based_Study_On_Indian_Parents_Regarding_Coding_Education_At_An_Early_Age" xr:uid="{6D9A4B13-A7B4-47D2-ABD5-29E33487D5E9}"/>
+    <hyperlink ref="B69" r:id="rId49" display="https://link.springer.com/article/10.1007/s10643-021-01236-8" xr:uid="{A2B87A9C-0F3F-4EF4-B11C-08E43F4A0A7E}"/>
+    <hyperlink ref="B70" r:id="rId50" display="https://journals.sagepub.com/doi/10.1177/07356331211027387" xr:uid="{C68BB1AA-645B-49DD-BC5B-44A61ABF61BF}"/>
+    <hyperlink ref="B71" r:id="rId51" display="https://psycnet.apa.org/record/2019-76766-006" xr:uid="{C38F218F-414A-48B6-B1EF-24BE5A4E1BF5}"/>
+    <hyperlink ref="B72" r:id="rId52" display="https://www.commonsense.org/education/lists/best-coding-tools-for-elementary" xr:uid="{6EAD0ADE-90CE-4A19-B789-BDCC60AC83C4}"/>
+    <hyperlink ref="B73" r:id="rId53" display="https://research.com/education/coding-classes-in-us-schools" xr:uid="{E3763074-424E-4523-9343-44E82E71D6CD}"/>
+    <hyperlink ref="B74" r:id="rId54" display="https://www.digitaljournal.com/pr/online-coding-for-kids-market-demand-research-insights-by-2031" xr:uid="{BDDB27E9-99E5-4830-91BD-E60159D61454}"/>
+    <hyperlink ref="B75" r:id="rId55" display="https://www.edtechreview.in/trends-insights/insights/how-coding-improves-children-s-later-academic-performance/" xr:uid="{D34684A5-94D8-4B8B-B2A9-3D0B9D8DFA2D}"/>
+    <hyperlink ref="B76" r:id="rId56" display="https://www.ucode.com/coding-classes-for-kids/what-is-coding" xr:uid="{1FB9BA95-EC46-4CAF-B1E6-508B8712134B}"/>
+    <hyperlink ref="B77" r:id="rId57" display="https://www.nordangliaeducation.com/news/2020/08/18/the-benefits-of-coding-in-school-and-how-to-teach-it" xr:uid="{4CD9688C-32E2-40C4-8BCC-33AB8B83AAE5}"/>
+    <hyperlink ref="B78" r:id="rId58" display="https://telrp.springeropen.com/articles/10.1186/s41039-019-0106-3" xr:uid="{C14270DC-1419-4621-97E5-D1E4281AB426}"/>
+    <hyperlink ref="B79" r:id="rId59" display="https://www.edc.org/should-all-children-learn-code" xr:uid="{C43BC409-367F-4E0B-B565-DA06ACBD4A94}"/>
+    <hyperlink ref="B80" r:id="rId60" display="https://dl.acm.org/doi/10.1145/2960310.2960325" xr:uid="{A4E99C88-BFEB-406B-AEC2-F778260FD2DD}"/>
+    <hyperlink ref="B81" r:id="rId61" display="https://medium.com/nerd-for-tech/the-new-education-policy-and-why-coding-is-mandatory-and-how-it-would-be-helpful-for-kids-25854a7a6bd5" xr:uid="{262B6536-3DC4-4E23-94DC-0EE340D45563}"/>
+    <hyperlink ref="B82" r:id="rId62" display="https://www.igi-global.com/book/teaching-computational-thinking-coding-young/262496" xr:uid="{04E46A6C-1E01-47D8-8950-4F80E4524A63}"/>
+    <hyperlink ref="B83" r:id="rId63" display="https://www.rasmussen.edu/degrees/technology/blog/coding-for-kids/" xr:uid="{9732FA1C-8FBF-43BB-85FC-75D2BE5E5708}"/>
+    <hyperlink ref="B84" r:id="rId64" display="https://membership.sciencepublishinggroup.com/journal/paperinfo?journalid=192&amp;doi=10.11648/j.ijeedu.20170604.11" xr:uid="{8A9F93B3-1E0E-40DE-9249-07BCA19C2A71}"/>
+    <hyperlink ref="B85" r:id="rId65" display="https://www.forbes.com/sites/forbesbusinessdevelopmentcouncil/2023/03/14/coding-education-is-crucial-to-american-business-success-3-ways-businesses-can-help/?sh=7c8a3a5454fc" xr:uid="{03A0A653-1314-49AF-9680-11DEF69DFADD}"/>
+    <hyperlink ref="B86" r:id="rId66" display="https://www.womansday.com/life/entertainment/g39590570/best-coding-websites-games-for-kids/" xr:uid="{FE42A966-0252-4789-AA18-725298F14A8F}"/>
+    <hyperlink ref="B87" r:id="rId67" display="https://www.iier.org.au/iier30/murcia2.pdf" xr:uid="{76CBABFD-2BCA-4DE2-A42E-BC0DDA6BA530}"/>
+    <hyperlink ref="B88" r:id="rId68" display="https://bootcamp.cvn.columbia.edu/blog/how-coding-provides-skills-that-can-help-children-cope-with-distress/" xr:uid="{F0664AC7-4381-4F0C-8E03-B94FD8987E44}"/>
+    <hyperlink ref="B89" r:id="rId69" display="https://www.nytimes.com/2020/07/21/parenting/stem-toys-kids.html" xr:uid="{6E532184-2475-44E4-B549-E6AF6B474736}"/>
+    <hyperlink ref="B90" r:id="rId70" display="https://www.haaretz.com/israel-news/tech-news/2021-10-29/ty-article-magazine/.premium/how-early-should-kids-learn-to-code/0000017f-dbb0-df62-a9ff-dff7553a0000" xr:uid="{905C516D-B03A-4FB2-BE31-338217E6B3D4}"/>
+    <hyperlink ref="B91" r:id="rId71" display="https://www.sciencefocus.com/future-technology/how-to-help-your-kids-to-learn-to-code/" xr:uid="{25016520-D063-462A-80D8-5F784323C464}"/>
+    <hyperlink ref="B92" r:id="rId72" display="https://oecdedutoday.com/computational-thinking-young-kids/" xr:uid="{512C07C5-8CA0-46DB-82F4-8DD59F978436}"/>
+    <hyperlink ref="B93" r:id="rId73" display="https://www.himama.com/blog/how-coding-helps-children-with-logic-and-problem-solving-skills/" xr:uid="{08BE5C7F-259E-4A22-95C0-1746C1818BF9}"/>
+    <hyperlink ref="B94" r:id="rId74" display="https://classover.com/en/blog/what-is-the-best-age-to-learn-coding-for-kids/" xr:uid="{000FAE0C-D7F4-444F-A213-E2DD3D4562DC}"/>
+    <hyperlink ref="B95" r:id="rId75" display="https://codakid.com/coding-games-for-kids-the-best-way-to-teach-computer-programming/" xr:uid="{30C68394-1D83-494A-BCA2-327D50B750C8}"/>
+    <hyperlink ref="B96" r:id="rId76" display="https://www.imperial.ac.uk/computing/outreach/codelab/" xr:uid="{2E9F0EA1-7516-4D94-8F5F-B03D17F30509}"/>
+    <hyperlink ref="B97" r:id="rId77" display="https://www.analyticsinsight.net/top-10-free-coding-websites-for-kids-to-learn-programming/" xr:uid="{C13F5222-1318-4A3C-B63D-4B9A36FDF4AD}"/>
+    <hyperlink ref="B98" r:id="rId78" display="https://gocoderz.com/blog/why-kids-should-learn-coding/" xr:uid="{BEFE04E8-9EC7-401C-89AC-4AC7526233A2}"/>
+    <hyperlink ref="B99" r:id="rId79" display="https://www.busythings.co.uk/blog/the-best-resources-for-teaching-children-to-code/" xr:uid="{26D71F0A-973A-4100-97C2-E6E601DC358A}"/>
+    <hyperlink ref="B100" r:id="rId80" display="https://www.tandfonline.com/doi/full/10.1080/20004508.2022.2072575" xr:uid="{7BA42E1C-F2D0-4B40-8680-B7C5F517BDD0}"/>
+    <hyperlink ref="B101" r:id="rId81" display="https://education.nsw.gov.au/content/dam/main-education/teaching-and-learning/education-for-a-changing-world/media/documents/Coding-and-Computational-Report_A.pdf" xr:uid="{B2953AED-B771-4592-8D39-B55FDDC615CD}"/>
+    <hyperlink ref="B102" r:id="rId82" display="https://www.imperial.ac.uk/computing/outreach/codelab/" xr:uid="{DAA8F604-6D8A-4E92-89C2-93EB9C98B5F5}"/>
+    <hyperlink ref="B103" r:id="rId83" display="https://ncca.ie/media/4155/primary-coding_final-report-on-the-coding-in-primary-schools-initiative.pdf" xr:uid="{73E574A7-BBDB-4FFF-9276-2787C4A49655}"/>
+    <hyperlink ref="B104" r:id="rId84" display="https://thejournal.com/articles/2013/10/23/6-tips-to-get-your-kids-excited-about-coding.aspx" xr:uid="{490D2BA8-6B63-4E4E-91B7-E7D7F3CDFA87}"/>
+    <hyperlink ref="B39" r:id="rId85" display="https://www.youtube.com/watch?v=Ok6LbV6bqaE" xr:uid="{6E0074EA-4479-44A0-8F06-43C77E8636AC}"/>
+    <hyperlink ref="B40" r:id="rId86" display="https://www.youtube.com/watch?v=IfvgVpQI56I" xr:uid="{97F06706-C17F-4A5E-8758-622F83A5ECC2}"/>
+    <hyperlink ref="B41" r:id="rId87" display="https://www.youtube.com/watch?v=-tj2WXCGFSI" xr:uid="{2584E698-B852-4CD9-972B-60AF2500C7D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
